--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thạch\SEP-Clone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Test\Laravel\SEP-Clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919BC8E6-E492-454E-A09A-88EDAE8AE3E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB61D34-E806-408C-8861-A72CFC8A5168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F9DFC22A-5C09-4600-ACA7-601874045E27}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F9DFC22A-5C09-4600-ACA7-601874045E27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="59">
   <si>
     <t>KHACHHANG</t>
   </si>
@@ -198,6 +201,18 @@
   </si>
   <si>
     <t>IDQuyen</t>
+  </si>
+  <si>
+    <t>PHIEUNHAP</t>
+  </si>
+  <si>
+    <t>SoPhieu</t>
+  </si>
+  <si>
+    <t>CTPHIEUNHAP</t>
+  </si>
+  <si>
+    <t>SoLuong</t>
   </si>
 </sst>
 </file>
@@ -261,11 +276,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -582,33 +600,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32416266-29F2-4271-BCEE-2F7C5A690683}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:AA20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.85546875" style="1"/>
-    <col min="9" max="9" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.85546875" style="1"/>
-    <col min="13" max="13" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="8.85546875" style="1"/>
-    <col min="17" max="17" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="11.44140625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="8.88671875" style="1"/>
+    <col min="17" max="17" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="1"/>
+    <col min="19" max="20" width="8.88671875" style="1"/>
+    <col min="21" max="21" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="8.88671875" style="1"/>
+    <col min="25" max="25" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -618,19 +642,27 @@
       </c>
       <c r="F1" s="3"/>
       <c r="I1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="M1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="N1" s="4"/>
+      <c r="Q1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="R1" s="3"/>
+      <c r="U1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="Q1" s="3" t="s">
+      <c r="V1" s="3"/>
+      <c r="Y1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="3"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Z1" s="3"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -650,7 +682,7 @@
         <v>36</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>18</v>
@@ -658,17 +690,11 @@
       <c r="K2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>18</v>
@@ -676,8 +702,26 @@
       <c r="S2" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="U2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -691,28 +735,37 @@
         <v>9</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="R3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O3" s="1" t="s">
+      <c r="V3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Y3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="R3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Z3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -726,25 +779,34 @@
         <v>18</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="R4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q4" s="2" t="s">
+      <c r="V4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="R4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Z4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -757,26 +819,26 @@
       <c r="F5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="R5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" s="2" t="s">
+      <c r="V5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -789,26 +851,26 @@
       <c r="F6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="2" t="s">
+      <c r="R6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="U6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q6" s="2" t="s">
+      <c r="V6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="Z6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -821,20 +883,20 @@
       <c r="F7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Z7" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -847,20 +909,20 @@
       <c r="F8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="R8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="Y8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Z8" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -873,36 +935,36 @@
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="Q9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="R9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="Y9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="Q10" s="2" t="s">
+      <c r="Z9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Y10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="R10" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="Q11" s="2" t="s">
+      <c r="Z10" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+      <c r="Y11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="Z11" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
@@ -911,16 +973,16 @@
         <v>41</v>
       </c>
       <c r="F14" s="3"/>
-      <c r="I14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="3"/>
-      <c r="M14" s="3" t="s">
+      <c r="R14" s="3"/>
+      <c r="U14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="V14" s="3"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -939,26 +1001,26 @@
       <c r="G15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="Q15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="1" t="s">
+      <c r="R15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="S15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="U15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O15" s="1" t="s">
+      <c r="V15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="W15" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
@@ -971,74 +1033,76 @@
       <c r="F16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="Q16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="R16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="U16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="V16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I17" s="2" t="s">
+    <row r="17" spans="17:22" x14ac:dyDescent="0.35">
+      <c r="Q17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="R17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="U17" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N17" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I18" s="2" t="s">
+      <c r="V17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="17:22" x14ac:dyDescent="0.35">
+      <c r="Q18" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="R18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="U18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I19" s="2" t="s">
+      <c r="V18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="17:22" x14ac:dyDescent="0.35">
+      <c r="Q19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I20" s="2" t="s">
+      <c r="R19" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="17:22" x14ac:dyDescent="0.35">
+      <c r="Q20" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="R20" s="2" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="11">
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="U14:V14"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="M1:N1"/>
     <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="U1:V1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Test\Laravel\SEP-Clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB61D34-E806-408C-8861-A72CFC8A5168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4487B101-AE8D-4527-A2DE-1114BAC69FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F9DFC22A-5C09-4600-ACA7-601874045E27}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="64">
   <si>
     <t>KHACHHANG</t>
   </si>
@@ -213,6 +213,21 @@
   </si>
   <si>
     <t>SoLuong</t>
+  </si>
+  <si>
+    <t>IDCC</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>LyDo</t>
+  </si>
+  <si>
+    <t>GhiChu</t>
   </si>
 </sst>
 </file>
@@ -600,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32416266-29F2-4271-BCEE-2F7C5A690683}">
-  <dimension ref="A1:AA20"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -1002,7 +1017,7 @@
         <v>36</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="R15" s="2" t="s">
         <v>18</v>
@@ -1011,7 +1026,7 @@
         <v>36</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>31</v>
+        <v>59</v>
       </c>
       <c r="V15" s="2" t="s">
         <v>18</v>
@@ -1034,41 +1049,41 @@
         <v>9</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="17:22" x14ac:dyDescent="0.35">
       <c r="Q17" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="U17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V17" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="U17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="V17" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="18" spans="17:22" x14ac:dyDescent="0.35">
       <c r="Q18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V18" s="2" t="s">
         <v>18</v>
@@ -1076,17 +1091,47 @@
     </row>
     <row r="19" spans="17:22" x14ac:dyDescent="0.35">
       <c r="Q19" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>9</v>
+        <v>61</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="17:22" x14ac:dyDescent="0.35">
       <c r="Q20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="17:22" x14ac:dyDescent="0.35">
+      <c r="Q21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="17:22" x14ac:dyDescent="0.35">
+      <c r="Q22" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="17:22" x14ac:dyDescent="0.35">
+      <c r="Q23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R20" s="2" t="s">
+      <c r="R23" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Test\Laravel\SEP-Clone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thạch\SEP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4487B101-AE8D-4527-A2DE-1114BAC69FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA024CD-7185-4533-8753-2E5E212A7C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F9DFC22A-5C09-4600-ACA7-601874045E27}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F9DFC22A-5C09-4600-ACA7-601874045E27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -618,36 +618,36 @@
   <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="X26" sqref="X26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="1"/>
-    <col min="9" max="9" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.85546875" style="1"/>
+    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="11.44140625" style="1" customWidth="1"/>
-    <col min="15" max="16" width="8.88671875" style="1"/>
+    <col min="11" max="11" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.85546875" style="1"/>
+    <col min="14" max="14" width="11.42578125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="8.85546875" style="1"/>
     <col min="17" max="17" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="8.88671875" style="1"/>
+    <col min="19" max="20" width="8.85546875" style="1"/>
     <col min="21" max="21" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="8.88671875" style="1"/>
-    <col min="25" max="25" width="11.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="8.85546875" style="1"/>
+    <col min="25" max="25" width="11.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.88671875" style="1"/>
+    <col min="27" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -677,7 +677,7 @@
       </c>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -736,7 +736,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -780,7 +780,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -821,7 +821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -853,7 +853,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -885,7 +885,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -911,7 +911,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -937,7 +937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -963,7 +963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="Y10" s="2" t="s">
         <v>32</v>
       </c>
@@ -971,7 +971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="Y11" s="2" t="s">
         <v>40</v>
       </c>
@@ -979,7 +979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
@@ -997,7 +997,7 @@
       </c>
       <c r="V14" s="3"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="17:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q17" s="2" t="s">
         <v>45</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="17:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q18" s="2" t="s">
         <v>46</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="17:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q19" s="2" t="s">
         <v>47</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="17:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q20" s="2" t="s">
         <v>49</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="17:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q21" s="2" t="s">
         <v>62</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="17:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q22" s="2" t="s">
         <v>63</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="17:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="17:22" x14ac:dyDescent="0.3">
       <c r="Q23" s="2" t="s">
         <v>53</v>
       </c>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thạch\SEP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA024CD-7185-4533-8753-2E5E212A7C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F03A52-56B5-440E-A589-45CC1CAAD7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F9DFC22A-5C09-4600-ACA7-601874045E27}"/>
   </bookViews>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="66">
   <si>
     <t>KHACHHANG</t>
   </si>
@@ -228,6 +225,12 @@
   </si>
   <si>
     <t>GhiChu</t>
+  </si>
+  <si>
+    <t>CONFIG</t>
+  </si>
+  <si>
+    <t>IPWANV4</t>
   </si>
 </sst>
 </file>
@@ -617,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32416266-29F2-4271-BCEE-2F7C5A690683}">
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X26" sqref="X26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -630,7 +633,7 @@
     <col min="5" max="5" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="8.85546875" style="1"/>
-    <col min="9" max="9" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="8.85546875" style="1"/>
@@ -988,6 +991,10 @@
         <v>41</v>
       </c>
       <c r="F14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="3"/>
       <c r="Q14" s="3" t="s">
         <v>44</v>
       </c>
@@ -1016,6 +1023,15 @@
       <c r="G15" s="1" t="s">
         <v>36</v>
       </c>
+      <c r="I15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="Q15" s="2" t="s">
         <v>59</v>
       </c>
@@ -1048,6 +1064,12 @@
       <c r="F16" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="I16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="Q16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1136,7 +1158,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="Y1:Z1"/>
     <mergeCell ref="I1:J1"/>
     <mergeCell ref="M1:N1"/>
@@ -1148,6 +1170,7 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="U1:V1"/>
+    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thạch\SEP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Test\Laravel\SEP-Clone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F03A52-56B5-440E-A589-45CC1CAAD7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E6A129-A5AF-44B3-B450-F10EAE066D3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F9DFC22A-5C09-4600-ACA7-601874045E27}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F9DFC22A-5C09-4600-ACA7-601874045E27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="66">
   <si>
     <t>KHACHHANG</t>
   </si>
@@ -621,36 +621,36 @@
   <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.85546875" style="1"/>
-    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="13.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.85546875" style="1"/>
-    <col min="14" max="14" width="11.42578125" style="1" customWidth="1"/>
-    <col min="15" max="16" width="8.85546875" style="1"/>
+    <col min="11" max="11" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="8.88671875" style="1"/>
+    <col min="14" max="14" width="11.44140625" style="1" customWidth="1"/>
+    <col min="15" max="16" width="8.88671875" style="1"/>
     <col min="17" max="17" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="8.85546875" style="1"/>
+    <col min="19" max="20" width="8.88671875" style="1"/>
     <col min="21" max="21" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="8.85546875" style="1"/>
-    <col min="25" max="25" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="8.88671875" style="1"/>
+    <col min="25" max="25" width="11.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.85546875" style="1"/>
+    <col min="27" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -680,7 +680,7 @@
       </c>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -739,7 +739,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -783,7 +783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -824,7 +824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -856,7 +856,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -888,7 +888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -914,7 +914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -940,7 +940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -966,7 +966,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="Y10" s="2" t="s">
         <v>32</v>
       </c>
@@ -974,7 +974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="Y11" s="2" t="s">
         <v>40</v>
       </c>
@@ -982,7 +982,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
@@ -1004,7 +1004,7 @@
       </c>
       <c r="V14" s="3"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -1024,13 +1024,10 @@
         <v>36</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="Q15" s="2" t="s">
         <v>59</v>
@@ -1051,7 +1048,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
@@ -1064,12 +1061,6 @@
       <c r="F16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="Q16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1083,7 +1074,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="17:22" x14ac:dyDescent="0.35">
       <c r="Q17" s="2" t="s">
         <v>45</v>
       </c>
@@ -1097,7 +1088,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="17:22" x14ac:dyDescent="0.35">
       <c r="Q18" s="2" t="s">
         <v>46</v>
       </c>
@@ -1111,7 +1102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="17:22" x14ac:dyDescent="0.35">
       <c r="Q19" s="2" t="s">
         <v>47</v>
       </c>
@@ -1125,7 +1116,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="17:22" x14ac:dyDescent="0.35">
       <c r="Q20" s="2" t="s">
         <v>49</v>
       </c>
@@ -1133,7 +1124,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="17:22" x14ac:dyDescent="0.35">
       <c r="Q21" s="2" t="s">
         <v>62</v>
       </c>
@@ -1141,7 +1132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="17:22" x14ac:dyDescent="0.35">
       <c r="Q22" s="2" t="s">
         <v>63</v>
       </c>
@@ -1149,7 +1140,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="17:22" x14ac:dyDescent="0.35">
       <c r="Q23" s="2" t="s">
         <v>53</v>
       </c>
